--- a/medicine/Œil et vue/Orbis_International/Orbis_International.xlsx
+++ b/medicine/Œil et vue/Orbis_International/Orbis_International.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orbis International est une organisation non gouvernementale vouée à la lutte contre la déficience visuelle et la cécité. Ses programmes se concentrent sur la prévention et le traitement des maladies de l'oeil dans les pays en voie de développement au travers de programmes de formation et de santé publique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orbis International est une organisation non gouvernementale vouée à la lutte contre la déficience visuelle et la cécité. Ses programmes se concentrent sur la prévention et le traitement des maladies de l'oeil dans les pays en voie de développement au travers de programmes de formation et de santé publique.
 </t>
         </is>
       </c>
